--- a/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10232</v>
+        <v>11118</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28296</v>
+        <v>28372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03594360227832504</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0209816401019151</v>
+        <v>0.02279850036022691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05802156611102421</v>
+        <v>0.05817750584792328</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>20365</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12904</v>
+        <v>12938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31329</v>
+        <v>30744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0438263155210591</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02777031563576403</v>
+        <v>0.02784171036732503</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06742037694582605</v>
+        <v>0.06616065666276064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -786,19 +786,19 @@
         <v>37894</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27027</v>
+        <v>27877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51447</v>
+        <v>50440</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03978977945034896</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02837904567629469</v>
+        <v>0.02927111438586427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05402015734812279</v>
+        <v>0.05296345445162909</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>32619</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23548</v>
+        <v>22993</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47812</v>
+        <v>46988</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06688519674508854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04828547894638754</v>
+        <v>0.04714774311366841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09804031345846666</v>
+        <v>0.09635080302279776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>36621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27068</v>
+        <v>27042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49016</v>
+        <v>49718</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07880881141009861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05825070218772842</v>
+        <v>0.05819485999730848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1054833972717282</v>
+        <v>0.1069940698402363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -857,19 +857,19 @@
         <v>69240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52988</v>
+        <v>54105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86694</v>
+        <v>87937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07270303295457434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05563823286094518</v>
+        <v>0.05681086790275464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09103026103727811</v>
+        <v>0.09233572096444743</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>437533</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>421749</v>
+        <v>421158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>449920</v>
+        <v>449518</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8971712009765864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8648040631093658</v>
+        <v>0.8635936452426176</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9225709771383878</v>
+        <v>0.9217455709573217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>426</v>
@@ -907,19 +907,19 @@
         <v>407697</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>393343</v>
+        <v>391662</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>420685</v>
+        <v>419779</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8773648730688423</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8464760237439191</v>
+        <v>0.8428580940841811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9053170584833541</v>
+        <v>0.9033654314678904</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>870</v>
@@ -928,19 +928,19 @@
         <v>845230</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>823193</v>
+        <v>824392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>863525</v>
+        <v>863107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8875071875950767</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8643681343090382</v>
+        <v>0.8656269887832785</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9067174399538908</v>
+        <v>0.9062783319658873</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>7278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3432</v>
+        <v>2831</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16282</v>
+        <v>14419</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01002113163055478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004726074449291994</v>
+        <v>0.003898125615231612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02241919809849433</v>
+        <v>0.01985382002854823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1053,19 +1053,19 @@
         <v>19512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12305</v>
+        <v>11625</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31217</v>
+        <v>31383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03142401327869813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0198174059109022</v>
+        <v>0.01872176469080343</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05027480756075163</v>
+        <v>0.05054204976005048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -1074,19 +1074,19 @@
         <v>26790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17782</v>
+        <v>17103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39456</v>
+        <v>40298</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01988589150169046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01319907943608238</v>
+        <v>0.01269563215120268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02928776156144981</v>
+        <v>0.02991284391833846</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>79947</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62870</v>
+        <v>62641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99982</v>
+        <v>98794</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1100809352135605</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08656807698320133</v>
+        <v>0.08625257217705343</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1376682465046488</v>
+        <v>0.1360325600732735</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -1124,19 +1124,19 @@
         <v>76212</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60909</v>
+        <v>60875</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93124</v>
+        <v>92216</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1227382835265705</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0980942529099019</v>
+        <v>0.09803954938815652</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1499756529947122</v>
+        <v>0.1485137229056644</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>149</v>
@@ -1145,19 +1145,19 @@
         <v>156158</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>133573</v>
+        <v>133235</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>179676</v>
+        <v>180323</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1159148086034084</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09914970543844151</v>
+        <v>0.09889935471283581</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1333720387177551</v>
+        <v>0.1338517987579441</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>639030</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>617436</v>
+        <v>619021</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>657185</v>
+        <v>656144</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8798979331558847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8501645425959706</v>
+        <v>0.8523472283619414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9048955698331682</v>
+        <v>0.9034629469715386</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>496</v>
@@ -1195,19 +1195,19 @@
         <v>525203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>505534</v>
+        <v>507898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>542602</v>
+        <v>543481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8458377031947314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.814160415196357</v>
+        <v>0.8179679729672171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8738584520311301</v>
+        <v>0.8752735306656066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1108</v>
@@ -1216,19 +1216,19 @@
         <v>1164234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1137162</v>
+        <v>1139778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1187943</v>
+        <v>1187570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8641992998949011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8441039365266831</v>
+        <v>0.8460459079566736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8817984620422152</v>
+        <v>0.8815218269159162</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>11583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5863</v>
+        <v>5720</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21397</v>
+        <v>21082</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01850419963548883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009366936045117603</v>
+        <v>0.009138355773619138</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03418321452792993</v>
+        <v>0.03367920879412451</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1341,19 +1341,19 @@
         <v>8704</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4026</v>
+        <v>4146</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16964</v>
+        <v>16461</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01267187645166376</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005861682063504159</v>
+        <v>0.006035700169138205</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02469696158443014</v>
+        <v>0.02396387148751156</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1362,19 +1362,19 @@
         <v>20287</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12669</v>
+        <v>12650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31763</v>
+        <v>34141</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01545270449130034</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009649961079786119</v>
+        <v>0.009635254201715935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0241939577244384</v>
+        <v>0.02600493193731595</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>90008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74735</v>
+        <v>73490</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109546</v>
+        <v>107568</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1437906923045025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1193912902571608</v>
+        <v>0.1174035634105352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1750034471269029</v>
+        <v>0.1718442444759229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -1412,19 +1412,19 @@
         <v>105799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88581</v>
+        <v>88340</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124520</v>
+        <v>126168</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1540256675783346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1289593035620143</v>
+        <v>0.1286083155526422</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1812810470639074</v>
+        <v>0.1836797853681432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -1433,19 +1433,19 @@
         <v>195807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169337</v>
+        <v>170672</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223456</v>
+        <v>221476</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1491456728782136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1289834446946393</v>
+        <v>0.1300010090987988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1702060786366143</v>
+        <v>0.1686982892430098</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>524373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503796</v>
+        <v>505975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>540529</v>
+        <v>542363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8377051080600086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8048325827641896</v>
+        <v>0.8083131491639262</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8635139130103523</v>
+        <v>0.8664451480448865</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>549</v>
@@ -1483,19 +1483,19 @@
         <v>572388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551964</v>
+        <v>551599</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>590236</v>
+        <v>590586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8333024559700016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8035690000026463</v>
+        <v>0.803037544887376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8592866475062262</v>
+        <v>0.8597961663130768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1052</v>
@@ -1504,19 +1504,19 @@
         <v>1096761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1068929</v>
+        <v>1069358</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1124897</v>
+        <v>1122087</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8354016226304861</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8142017332203273</v>
+        <v>0.8145283578283253</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8568329254619108</v>
+        <v>0.8546925914419182</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>14655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7657</v>
+        <v>7944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25260</v>
+        <v>24757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02860521959188006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01494473725722802</v>
+        <v>0.01550643476525291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04930459320725294</v>
+        <v>0.04832283315037474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1629,19 +1629,19 @@
         <v>8700</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4305</v>
+        <v>3783</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15952</v>
+        <v>15328</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01697294009862504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008398500191126269</v>
+        <v>0.007380996588617988</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03112111818041037</v>
+        <v>0.02990427668608744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1650,19 +1650,19 @@
         <v>23355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15348</v>
+        <v>15772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35174</v>
+        <v>35249</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0227876414251326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01497531601603168</v>
+        <v>0.01538824299531772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03431855480456648</v>
+        <v>0.03439198193597639</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>73899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58241</v>
+        <v>59607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92158</v>
+        <v>92408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1442407004440451</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1136785027738132</v>
+        <v>0.1163451289064263</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1798800550509193</v>
+        <v>0.1803680609027631</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -1700,19 +1700,19 @@
         <v>99440</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81216</v>
+        <v>83479</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>117677</v>
+        <v>119402</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1939983221911908</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1584443360698561</v>
+        <v>0.1628593534844151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2295765528538598</v>
+        <v>0.2329420932018076</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>164</v>
@@ -1721,19 +1721,19 @@
         <v>173339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148834</v>
+        <v>149318</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198551</v>
+        <v>198806</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1691256642272247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1452156379205909</v>
+        <v>0.1456886475255662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1937243302815027</v>
+        <v>0.1939735251776346</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>423776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>403577</v>
+        <v>405559</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>441147</v>
+        <v>440616</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8271540799640748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.787728955521339</v>
+        <v>0.7915977159707082</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8610603138029627</v>
+        <v>0.8600231805896961</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>394</v>
@@ -1771,19 +1771,19 @@
         <v>404444</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>385295</v>
+        <v>383689</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>422360</v>
+        <v>421668</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7890287377101841</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7516715051101135</v>
+        <v>0.7485392210366971</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8239818636091611</v>
+        <v>0.8226323861975977</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>790</v>
@@ -1792,19 +1792,19 @@
         <v>828219</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>802165</v>
+        <v>801741</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>852572</v>
+        <v>853210</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8080866943476427</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7826660409089249</v>
+        <v>0.7822519795870649</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.831846919669638</v>
+        <v>0.8324696411492769</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>10701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5750</v>
+        <v>5109</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18256</v>
+        <v>18105</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02806782550610559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01508289887671097</v>
+        <v>0.01340127206925896</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0478851801705768</v>
+        <v>0.04748760220369828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1917,19 +1917,19 @@
         <v>7401</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3101</v>
+        <v>3237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14396</v>
+        <v>14998</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01846224147393995</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007734521328060924</v>
+        <v>0.008075397050811329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03591313073384376</v>
+        <v>0.03741261141035385</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1938,19 +1938,19 @@
         <v>18102</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11066</v>
+        <v>10548</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27265</v>
+        <v>27102</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02314455367779212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0141491796642831</v>
+        <v>0.01348701072430726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03486022953842276</v>
+        <v>0.03465193690606214</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>69912</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55468</v>
+        <v>56277</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86011</v>
+        <v>85975</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1833768168097689</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1454906317768327</v>
+        <v>0.1476126726152401</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2256044217139109</v>
+        <v>0.2255102068070383</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>98</v>
@@ -1988,19 +1988,19 @@
         <v>99708</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>84100</v>
+        <v>81030</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>117996</v>
+        <v>116523</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2487301291659261</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2097945374421307</v>
+        <v>0.2021364710504959</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2943507737261162</v>
+        <v>0.2906757957029028</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>166</v>
@@ -2009,19 +2009,19 @@
         <v>169620</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>147931</v>
+        <v>148048</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191873</v>
+        <v>192741</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2168731789812524</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1891421002530361</v>
+        <v>0.189291271532195</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.245325829717144</v>
+        <v>0.2464348117820392</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>300635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>282370</v>
+        <v>283073</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>315507</v>
+        <v>314938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7885553576841254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7406461951059639</v>
+        <v>0.7424906842360647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8275645161170541</v>
+        <v>0.8260709499540888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>288</v>
@@ -2059,19 +2059,19 @@
         <v>293759</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>274702</v>
+        <v>276504</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>309504</v>
+        <v>313419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.732807629360134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6852674391939859</v>
+        <v>0.6897641452811395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7720857737374164</v>
+        <v>0.7818516611696915</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>595</v>
@@ -2080,19 +2080,19 @@
         <v>594394</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>571827</v>
+        <v>569492</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>616258</v>
+        <v>616597</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7599822673409554</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7311284560915249</v>
+        <v>0.728142833244836</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7879366924134815</v>
+        <v>0.7883703888490378</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>43166</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31690</v>
+        <v>32730</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56286</v>
+        <v>55287</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1489655242982469</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.109361237059949</v>
+        <v>0.1129508180292393</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1942410651547095</v>
+        <v>0.1907933294368769</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -2205,19 +2205,19 @@
         <v>23200</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15658</v>
+        <v>14902</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33211</v>
+        <v>32631</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06859931748508137</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04629876220138396</v>
+        <v>0.04406238045911866</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09819859717908433</v>
+        <v>0.09648393754447539</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -2226,19 +2226,19 @@
         <v>66366</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53345</v>
+        <v>52111</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>83700</v>
+        <v>82551</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1056837109988745</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08494805333888038</v>
+        <v>0.08298269882274632</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1332871197515494</v>
+        <v>0.1314560281563995</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>60536</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47086</v>
+        <v>48783</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75226</v>
+        <v>74968</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2089098502483142</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1624930866151353</v>
+        <v>0.1683485464526313</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2596020627107337</v>
+        <v>0.2587137474320017</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>133</v>
@@ -2276,19 +2276,19 @@
         <v>122753</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105808</v>
+        <v>106276</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137833</v>
+        <v>139492</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.362961359080925</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3128576641447388</v>
+        <v>0.3142405116813734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4075490458257194</v>
+        <v>0.4124546166774665</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>196</v>
@@ -2297,19 +2297,19 @@
         <v>183289</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>163704</v>
+        <v>160475</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>206080</v>
+        <v>205344</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2918754263054312</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2606867252204003</v>
+        <v>0.2555447730789148</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3281684448918875</v>
+        <v>0.3269956104745088</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>186070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>171537</v>
+        <v>169186</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>204286</v>
+        <v>200821</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.642124625453439</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5919702890640922</v>
+        <v>0.583857249502049</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.704986777044995</v>
+        <v>0.6930275636812728</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>209</v>
@@ -2347,19 +2347,19 @@
         <v>192246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>174464</v>
+        <v>174506</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>208195</v>
+        <v>208938</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5684393234339936</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5158630687551657</v>
+        <v>0.5159861481235464</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6155984212556127</v>
+        <v>0.6177962851974582</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>401</v>
@@ -2368,19 +2368,19 @@
         <v>378315</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>353942</v>
+        <v>355607</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>402307</v>
+        <v>402923</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6024408626956943</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5636273221335527</v>
+        <v>0.5662791363442115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6406462546965234</v>
+        <v>0.6416262516153542</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>35477</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25172</v>
+        <v>25682</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45775</v>
+        <v>45897</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1719225424698233</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1219850223120151</v>
+        <v>0.1244568090895994</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2218277356308082</v>
+        <v>0.2224195978623017</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -2493,19 +2493,19 @@
         <v>43372</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31538</v>
+        <v>31774</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>58574</v>
+        <v>55987</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1302508535035845</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09471090473792389</v>
+        <v>0.09542033766276882</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1759056156676466</v>
+        <v>0.1681344099068259</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>74</v>
@@ -2514,19 +2514,19 @@
         <v>78849</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63086</v>
+        <v>62980</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>98021</v>
+        <v>97848</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1461945878820645</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.116968944783923</v>
+        <v>0.1167722172918946</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1817425914308988</v>
+        <v>0.1814212688993446</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>51069</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38777</v>
+        <v>39895</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63248</v>
+        <v>64939</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2474837392206496</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1879174939522311</v>
+        <v>0.193333825141465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3065026564523865</v>
+        <v>0.3146999718944879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>118</v>
@@ -2564,19 +2564,19 @@
         <v>135212</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>115909</v>
+        <v>115963</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>154201</v>
+        <v>153430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.406059084013249</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3480874707436014</v>
+        <v>0.3482498858426006</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4630833995353703</v>
+        <v>0.4607678662718498</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>171</v>
@@ -2585,19 +2585,19 @@
         <v>186281</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>165439</v>
+        <v>162593</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>211497</v>
+        <v>210398</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3453876008296079</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3067443347771598</v>
+        <v>0.3014668842039634</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3921408415828386</v>
+        <v>0.3901020479696249</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>119807</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>105748</v>
+        <v>104846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>133636</v>
+        <v>132404</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5805937183095271</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5124595507597562</v>
+        <v>0.5080891164454744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6476085553393657</v>
+        <v>0.6416390419655691</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>134</v>
@@ -2635,19 +2635,19 @@
         <v>154403</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>135803</v>
+        <v>134567</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>174699</v>
+        <v>174617</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4636900624831665</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4078331824172429</v>
+        <v>0.4041214554100185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5246435723074977</v>
+        <v>0.5243961942924339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>260</v>
@@ -2656,19 +2656,19 @@
         <v>274210</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>250605</v>
+        <v>248718</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>298915</v>
+        <v>297676</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5084178112883276</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.464650880132159</v>
+        <v>0.4611521525243963</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5542244593066706</v>
+        <v>0.5519272179214342</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>140389</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>119124</v>
+        <v>119409</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>165854</v>
+        <v>165409</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04346939335260831</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03688507039816613</v>
+        <v>0.03697328042468311</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05135437130685597</v>
+        <v>0.05121655572587894</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>123</v>
@@ -2781,19 +2781,19 @@
         <v>131255</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>110063</v>
+        <v>109600</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>154682</v>
+        <v>156552</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03909714868659508</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03278480212470043</v>
+        <v>0.03264672684628046</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04607550598782015</v>
+        <v>0.0466326965748675</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>263</v>
@@ -2802,19 +2802,19 @@
         <v>271643</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>239535</v>
+        <v>239990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>305368</v>
+        <v>304181</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04124094320131146</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03636625373585536</v>
+        <v>0.03643524583728543</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04636106688353403</v>
+        <v>0.04618079150394033</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>457990</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>420346</v>
+        <v>417975</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>497368</v>
+        <v>499827</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1418098375835028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1301541261399574</v>
+        <v>0.129419714805456</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1540027379720045</v>
+        <v>0.1547639888489108</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>656</v>
@@ -2852,19 +2852,19 @@
         <v>675745</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>623225</v>
+        <v>633201</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>721607</v>
+        <v>726327</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2012860747920737</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1856418382496907</v>
+        <v>0.1886133619344199</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2149470819199793</v>
+        <v>0.2163529258835915</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1102</v>
@@ -2873,19 +2873,19 @@
         <v>1133735</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1073359</v>
+        <v>1075657</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1198301</v>
+        <v>1196816</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1721237472410019</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1629574546001714</v>
+        <v>0.1633064173849979</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1819261396385817</v>
+        <v>0.1817006955095732</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>2631226</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2496</v>
@@ -2923,19 +2923,19 @@
         <v>2550138</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5076</v>
@@ -2944,19 +2944,19 @@
         <v>5181365</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>24290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15975</v>
+        <v>16536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34974</v>
+        <v>35479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0537127814236171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03532604228473336</v>
+        <v>0.03656520857965406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07733643816325045</v>
+        <v>0.07845328077477587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3312,19 +3312,19 @@
         <v>24070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16041</v>
+        <v>15763</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36042</v>
+        <v>34925</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05607168117560698</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03736852085960361</v>
+        <v>0.03672119822822626</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08396252079714059</v>
+        <v>0.0813605460614262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -3333,19 +3333,19 @@
         <v>48360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36246</v>
+        <v>36290</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62147</v>
+        <v>62566</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05486150927286897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04111867918784123</v>
+        <v>0.04116855924808736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07050145865895727</v>
+        <v>0.07097695399024513</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>47454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35753</v>
+        <v>36648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60731</v>
+        <v>62246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.104933382729919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07905994571728764</v>
+        <v>0.08103770415352589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1342934022178831</v>
+        <v>0.137641886637965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -3383,19 +3383,19 @@
         <v>72323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57066</v>
+        <v>57369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88282</v>
+        <v>89137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1684810668437569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1329374884498692</v>
+        <v>0.1336443861216005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.205657047763432</v>
+        <v>0.2076489691439778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -3404,19 +3404,19 @@
         <v>119777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102275</v>
+        <v>101931</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141385</v>
+        <v>141612</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.135879587389717</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1160241748756598</v>
+        <v>0.1156343615954899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.160392431873831</v>
+        <v>0.1606498650499635</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>380484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>364003</v>
+        <v>364700</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>394921</v>
+        <v>394617</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8413538358464639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8049100471756431</v>
+        <v>0.8064514737571178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8732774844046127</v>
+        <v>0.8726073022648655</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>326</v>
@@ -3454,19 +3454,19 @@
         <v>332874</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>315736</v>
+        <v>315180</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>349332</v>
+        <v>350633</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7754472519806361</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7355232456830947</v>
+        <v>0.7342291183762177</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8137869174310776</v>
+        <v>0.816817133763825</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>696</v>
@@ -3475,19 +3475,19 @@
         <v>713357</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>689268</v>
+        <v>688880</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>734321</v>
+        <v>735436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.809258903337414</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.781931019824889</v>
+        <v>0.7814911873792276</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8330408492787974</v>
+        <v>0.8343060633975091</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>24069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15236</v>
+        <v>15990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35706</v>
+        <v>37528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03507866222420367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02220520164460358</v>
+        <v>0.02330463783948297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05203793681790021</v>
+        <v>0.05469298305326006</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3600,19 +3600,19 @@
         <v>18311</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10958</v>
+        <v>11175</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28086</v>
+        <v>28427</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03005744136653182</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01798829653610521</v>
+        <v>0.01834378964331944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04610401916779847</v>
+        <v>0.04666425904049096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -3621,19 +3621,19 @@
         <v>42380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31233</v>
+        <v>30871</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58577</v>
+        <v>57624</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03271721256873062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0241121714493384</v>
+        <v>0.02383247115522368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04522092297593853</v>
+        <v>0.04448577662917553</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>109516</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>91215</v>
+        <v>90719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>129331</v>
+        <v>129570</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1596091618611722</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1329371968895718</v>
+        <v>0.1322145119974414</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1884878193861039</v>
+        <v>0.1888355978526499</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>102</v>
@@ -3671,19 +3671,19 @@
         <v>107870</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>89720</v>
+        <v>88527</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>129352</v>
+        <v>126993</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1770708533331324</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1472768307255177</v>
+        <v>0.1453191144160726</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2123347210536274</v>
+        <v>0.2084613569307062</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>207</v>
@@ -3692,19 +3692,19 @@
         <v>217386</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191253</v>
+        <v>190830</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>247230</v>
+        <v>248328</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1678212892459764</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.147647153116467</v>
+        <v>0.1473205772134334</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1908605799362717</v>
+        <v>0.1917082215642831</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>552565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>531072</v>
+        <v>530886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>572105</v>
+        <v>573544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8053121759146241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.773988626716243</v>
+        <v>0.7737177124356437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8337906910103704</v>
+        <v>0.8358878393960033</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>451</v>
@@ -3742,19 +3742,19 @@
         <v>483010</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>460388</v>
+        <v>463160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>503166</v>
+        <v>502188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7928717053003357</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7557362117006112</v>
+        <v>0.7602867072276733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8259573525512364</v>
+        <v>0.824351487973224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>989</v>
@@ -3763,19 +3763,19 @@
         <v>1035575</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1005621</v>
+        <v>1002188</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1064501</v>
+        <v>1063492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.799461498185293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7763370504639936</v>
+        <v>0.7736865652695343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8217922567503567</v>
+        <v>0.8210133600060679</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>11576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5901</v>
+        <v>6094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20314</v>
+        <v>21518</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01704870199563297</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008690728124662485</v>
+        <v>0.008974121329924286</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02991647722353902</v>
+        <v>0.03168946950934304</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -3888,19 +3888,19 @@
         <v>15998</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9640</v>
+        <v>8989</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25528</v>
+        <v>26342</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02256677948859225</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0135981660055954</v>
+        <v>0.01267986703048849</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03601064894916108</v>
+        <v>0.0371592094738096</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -3909,19 +3909,19 @@
         <v>27574</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17931</v>
+        <v>18874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39491</v>
+        <v>39972</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01986713075917958</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01291938584719735</v>
+        <v>0.01359846557290037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02845298588753666</v>
+        <v>0.02879980262344942</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>133869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114864</v>
+        <v>112826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157435</v>
+        <v>155542</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1971497227052092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1691613698781106</v>
+        <v>0.1661586769286826</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2318557980352209</v>
+        <v>0.2290673930708597</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -3959,19 +3959,19 @@
         <v>145842</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123558</v>
+        <v>125697</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167106</v>
+        <v>168449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2057304493835331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1742957795780667</v>
+        <v>0.1773131241691691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2357255232632467</v>
+        <v>0.2376211040938173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>268</v>
@@ -3980,19 +3980,19 @@
         <v>279711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>247909</v>
+        <v>252741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309713</v>
+        <v>313348</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2015324387712988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.178618921656786</v>
+        <v>0.182100203019595</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2231484712337615</v>
+        <v>0.2257680879111133</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>533577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>509730</v>
+        <v>512341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>554363</v>
+        <v>555607</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7858015752991578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7506819095493439</v>
+        <v>0.7545261357240107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8164120591642576</v>
+        <v>0.818245097257753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>512</v>
@@ -4030,19 +4030,19 @@
         <v>547059</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>524996</v>
+        <v>524079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>572305</v>
+        <v>568386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7717027711278747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7405789679733802</v>
+        <v>0.7392857679911189</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8073149621361164</v>
+        <v>0.8017868856644447</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1020</v>
@@ -4051,19 +4051,19 @@
         <v>1080637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1047007</v>
+        <v>1046082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1110307</v>
+        <v>1108168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7786004304695217</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7543705422966296</v>
+        <v>0.7537038807580403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7999775955783103</v>
+        <v>0.7984368452785215</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>14094</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7377</v>
+        <v>7299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25054</v>
+        <v>23991</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02300889050002691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0120433575516904</v>
+        <v>0.01191597075361995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04090044627361469</v>
+        <v>0.03916411840772688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4176,19 +4176,19 @@
         <v>10440</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4211</v>
+        <v>4195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21513</v>
+        <v>21701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01694247506312662</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006834355501228326</v>
+        <v>0.006807402992772472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03491200876495217</v>
+        <v>0.03521793708711417</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -4197,19 +4197,19 @@
         <v>24534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14697</v>
+        <v>15464</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38236</v>
+        <v>39616</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01996671188156622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01196045714808538</v>
+        <v>0.01258539931882789</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03111783288055129</v>
+        <v>0.03224060107630664</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>147732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126960</v>
+        <v>123707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172362</v>
+        <v>170841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2411693836685117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2072595715792948</v>
+        <v>0.2019488079430827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2813778199980062</v>
+        <v>0.2788947316479252</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -4247,19 +4247,19 @@
         <v>194299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>169437</v>
+        <v>171152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218267</v>
+        <v>218223</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3153178935944061</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2749718094441396</v>
+        <v>0.2777550284418257</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3542144021195098</v>
+        <v>0.3541439399336154</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>303</v>
@@ -4268,19 +4268,19 @@
         <v>342030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>310824</v>
+        <v>309491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>380199</v>
+        <v>375734</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2783532880406355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2529562628156161</v>
+        <v>0.2518717638659309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3094154936045875</v>
+        <v>0.3057817956375068</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>450739</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>424972</v>
+        <v>427146</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>471946</v>
+        <v>474648</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7358217258314613</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6937577632644478</v>
+        <v>0.6973066041713006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7704421468156536</v>
+        <v>0.77485324309064</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>358</v>
@@ -4318,19 +4318,19 @@
         <v>411460</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>385208</v>
+        <v>386938</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>435262</v>
+        <v>436567</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6677396313424673</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6251360445935688</v>
+        <v>0.6279424513312799</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7063660314019947</v>
+        <v>0.7084835362183144</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>764</v>
@@ -4339,19 +4339,19 @@
         <v>862199</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>823578</v>
+        <v>828220</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>894168</v>
+        <v>895890</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7016800000777983</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6702494889128968</v>
+        <v>0.6740271892075149</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7276971515175326</v>
+        <v>0.7290986711069579</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>12441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6530</v>
+        <v>7239</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20771</v>
+        <v>22071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02913142001663553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01528940958357202</v>
+        <v>0.01694985716411855</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04863379072620155</v>
+        <v>0.05167931245503833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -4464,19 +4464,19 @@
         <v>10579</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5173</v>
+        <v>5142</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19731</v>
+        <v>20447</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02373376720815367</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01160610484376778</v>
+        <v>0.01153531198995448</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04426420063250825</v>
+        <v>0.04587159084199193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -4485,19 +4485,19 @@
         <v>23021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15083</v>
+        <v>14639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35116</v>
+        <v>35286</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02637486022574512</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01728027208482562</v>
+        <v>0.01677206029291717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04023223097091292</v>
+        <v>0.04042698284334665</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>100214</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>84180</v>
+        <v>81835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>119471</v>
+        <v>119975</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2346486497963543</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1971055515770695</v>
+        <v>0.1916152846408944</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2797392756874835</v>
+        <v>0.2809183980083855</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>157</v>
@@ -4535,19 +4535,19 @@
         <v>171496</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>150923</v>
+        <v>151074</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>193010</v>
+        <v>193035</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3847343678206477</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3385812343148876</v>
+        <v>0.3389203740696321</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.433000005772222</v>
+        <v>0.4330556103925306</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>251</v>
@@ -4556,19 +4556,19 @@
         <v>271710</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>241137</v>
+        <v>244868</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>297583</v>
+        <v>303296</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.311296828212455</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2762701751164185</v>
+        <v>0.2805449466267018</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3409402699261346</v>
+        <v>0.3474848185327619</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>314425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>294688</v>
+        <v>293783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>332028</v>
+        <v>334126</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7362199301870102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6900073609603788</v>
+        <v>0.6878869626960546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7774372302853518</v>
+        <v>0.7823503486226887</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>238</v>
@@ -4606,19 +4606,19 @@
         <v>263676</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>242877</v>
+        <v>242207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>285711</v>
+        <v>284467</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5915318649711986</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5448713307928766</v>
+        <v>0.5433680175845147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6409661734540162</v>
+        <v>0.638174484066712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>523</v>
@@ -4627,19 +4627,19 @@
         <v>578101</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>551017</v>
+        <v>545636</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>609603</v>
+        <v>605939</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6623283115617999</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6312982540265348</v>
+        <v>0.6251332080640464</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6984204153010066</v>
+        <v>0.6942222529338961</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>53008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39608</v>
+        <v>39645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67010</v>
+        <v>69753</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1711112018176617</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1278554190619988</v>
+        <v>0.1279767560553051</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2163109434749992</v>
+        <v>0.2251664174817584</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -4752,19 +4752,19 @@
         <v>36617</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25491</v>
+        <v>25979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49748</v>
+        <v>50111</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1037010929190134</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07219143281388793</v>
+        <v>0.07357393691416342</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1408871589905025</v>
+        <v>0.1419146294469263</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -4773,19 +4773,19 @@
         <v>89625</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>73587</v>
+        <v>71824</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>109507</v>
+        <v>109340</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1352035592323294</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1110090055229324</v>
+        <v>0.1083496877431976</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1651961618735485</v>
+        <v>0.1649435827823244</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>88997</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73753</v>
+        <v>72530</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>106275</v>
+        <v>105190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.287284947275768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2380781308399796</v>
+        <v>0.2341305761765647</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.343058225761589</v>
+        <v>0.3395563589566285</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>125</v>
@@ -4823,19 +4823,19 @@
         <v>127484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111036</v>
+        <v>110031</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146783</v>
+        <v>144664</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3610363670432456</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3144549263245637</v>
+        <v>0.3116085899167645</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4156916756516671</v>
+        <v>0.4096898866794476</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>209</v>
@@ -4844,19 +4844,19 @@
         <v>216481</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>193340</v>
+        <v>193088</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>242546</v>
+        <v>245263</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3265704441313368</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2916606732658672</v>
+        <v>0.2912812066623895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3658907965544124</v>
+        <v>0.3699891640772214</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>167781</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>149321</v>
+        <v>149911</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>186297</v>
+        <v>186780</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5416038509065704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4820119477065282</v>
+        <v>0.483918304656993</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6013726889176414</v>
+        <v>0.602930891660416</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>184</v>
@@ -4894,19 +4894,19 @@
         <v>189004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>170403</v>
+        <v>172194</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>207485</v>
+        <v>207289</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.535262540037741</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4825840774332606</v>
+        <v>0.4876570130219505</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5876013390973639</v>
+        <v>0.5870457494899158</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>334</v>
@@ -4915,19 +4915,19 @@
         <v>356786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>329602</v>
+        <v>328963</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>381758</v>
+        <v>381427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5382259966363339</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4972178559273637</v>
+        <v>0.4962536018205201</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.575898037971439</v>
+        <v>0.5753985272007932</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>53956</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41677</v>
+        <v>40631</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70464</v>
+        <v>69767</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2186853511017104</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1689203395367138</v>
+        <v>0.1646795257441147</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2855946458275647</v>
+        <v>0.2827681709449598</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -5040,19 +5040,19 @@
         <v>65069</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>50413</v>
+        <v>51051</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81873</v>
+        <v>80862</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1683343662507887</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.130418845550395</v>
+        <v>0.1320710826464212</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2118080370118977</v>
+        <v>0.2091924962145707</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>107</v>
@@ -5061,19 +5061,19 @@
         <v>119025</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>100296</v>
+        <v>99088</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>140792</v>
+        <v>144153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.187951493363608</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1583774450227162</v>
+        <v>0.1564702199795419</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2223247702965108</v>
+        <v>0.2276321109544364</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>63302</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49783</v>
+        <v>48354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>78991</v>
+        <v>77629</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2565639588910443</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2017719536079719</v>
+        <v>0.1959806022601876</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3201546978890872</v>
+        <v>0.3146340425756072</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>138</v>
@@ -5111,19 +5111,19 @@
         <v>153364</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>133410</v>
+        <v>134436</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175769</v>
+        <v>173648</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3967548935783728</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3451356962100859</v>
+        <v>0.3477882858707228</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4547181047364244</v>
+        <v>0.4492302100149156</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -5132,19 +5132,19 @@
         <v>216665</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>193901</v>
+        <v>192059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>241993</v>
+        <v>242039</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3421354378920769</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.306188007934512</v>
+        <v>0.3032806465371886</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3821306812825707</v>
+        <v>0.3822035070281134</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>129471</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112652</v>
+        <v>112762</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146981</v>
+        <v>146378</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5247506900072453</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4565819468054592</v>
+        <v>0.4570309936360902</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5957221858721998</v>
+        <v>0.5932749122297366</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>150</v>
@@ -5182,19 +5182,19 @@
         <v>168113</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>148219</v>
+        <v>149590</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>190993</v>
+        <v>188792</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4349107401708385</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3834447240474971</v>
+        <v>0.3869918169522913</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4941017335946581</v>
+        <v>0.4884089138419014</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>265</v>
@@ -5203,19 +5203,19 @@
         <v>297583</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>272222</v>
+        <v>271248</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>323334</v>
+        <v>326272</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.469913068744315</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4298656073689479</v>
+        <v>0.428327676508127</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5105752787895743</v>
+        <v>0.5152161029586891</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>193436</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167836</v>
+        <v>166965</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>224803</v>
+        <v>220748</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05666685191426234</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04916745598885154</v>
+        <v>0.04891219043333451</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0658557703533245</v>
+        <v>0.06466804267172076</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>166</v>
@@ -5328,19 +5328,19 @@
         <v>181084</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>155318</v>
+        <v>154626</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>209441</v>
+        <v>209095</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05102443279996165</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04376429630915099</v>
+        <v>0.04356933052386511</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05901471200550135</v>
+        <v>0.05891726800035291</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>343</v>
@@ -5349,19 +5349,19 @@
         <v>374519</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>337527</v>
+        <v>339759</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>418115</v>
+        <v>418637</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05379077911686167</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0484776863338004</v>
+        <v>0.04879835454065717</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06005228928170886</v>
+        <v>0.06012730750834573</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>691083</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>645583</v>
+        <v>642796</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>738593</v>
+        <v>739256</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2024522529157267</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1891231249454134</v>
+        <v>0.1883065840777239</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.216370292729986</v>
+        <v>0.2165646498750727</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>904</v>
@@ -5399,19 +5399,19 @@
         <v>972678</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>921079</v>
+        <v>921950</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1029614</v>
+        <v>1029791</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2740741121950195</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2595349819204705</v>
+        <v>0.2597803826695407</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2901171298721976</v>
+        <v>0.2901672304575391</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1552</v>
@@ -5420,19 +5420,19 @@
         <v>1663760</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1587399</v>
+        <v>1595119</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1735360</v>
+        <v>1741064</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2389595872699495</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2279921371496702</v>
+        <v>0.2291009560152743</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2492431291175898</v>
+        <v>0.2500623728570242</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>2529041</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.740880895170011</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2219</v>
@@ -5470,19 +5470,19 @@
         <v>2395197</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6749014550050187</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4591</v>
@@ -5491,19 +5491,19 @@
         <v>4924238</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7072496336131888</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>24181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15321</v>
+        <v>14594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35804</v>
+        <v>36296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05764773563717459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03652497482593614</v>
+        <v>0.03479119577817476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0853555707687263</v>
+        <v>0.08652967856262071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5859,19 +5859,19 @@
         <v>18582</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11401</v>
+        <v>11859</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27204</v>
+        <v>28739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04706520101013782</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02887667653782525</v>
+        <v>0.03003683742226489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06890348768854195</v>
+        <v>0.0727922843687725</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -5880,19 +5880,19 @@
         <v>42763</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31986</v>
+        <v>31391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57159</v>
+        <v>57663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05251668506216863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03928195375758454</v>
+        <v>0.0385511633380309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07019685987852069</v>
+        <v>0.07081507766107006</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>45425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33115</v>
+        <v>33960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59176</v>
+        <v>59446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.108293822105469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07894605899071408</v>
+        <v>0.08096016728133226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1410768032411795</v>
+        <v>0.1417193286646523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -5930,19 +5930,19 @@
         <v>55283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43392</v>
+        <v>43486</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70496</v>
+        <v>71236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1400255639492368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1099071282698222</v>
+        <v>0.110144200236515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.178557343930544</v>
+        <v>0.1804312170784262</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -5951,19 +5951,19 @@
         <v>100708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84015</v>
+        <v>83594</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120280</v>
+        <v>118316</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1236792829588105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1031783005895285</v>
+        <v>0.1026612160304262</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1477147996560114</v>
+        <v>0.1453027022743587</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>349857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>332422</v>
+        <v>333356</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>365415</v>
+        <v>364997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8340584422573564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7924936474062768</v>
+        <v>0.7947202051816049</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8711494714262632</v>
+        <v>0.8701541693034854</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>328</v>
@@ -6001,19 +6001,19 @@
         <v>320942</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>304242</v>
+        <v>305786</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>334275</v>
+        <v>335252</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8129092350406254</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.770608812237801</v>
+        <v>0.7745207257525117</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8466787876726908</v>
+        <v>0.849155290991916</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>657</v>
@@ -6022,19 +6022,19 @@
         <v>670799</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>648372</v>
+        <v>650274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>692567</v>
+        <v>690738</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8238040319790209</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.796261700559593</v>
+        <v>0.7985980875210107</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8505373288620932</v>
+        <v>0.8482907932055959</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>15933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9297</v>
+        <v>9138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25595</v>
+        <v>26297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02698237220436733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01574461116576874</v>
+        <v>0.01547439281905512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04334450770464335</v>
+        <v>0.04453327478370793</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -6147,19 +6147,19 @@
         <v>14217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8490</v>
+        <v>7613</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22638</v>
+        <v>22722</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02530935407193166</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01511419866932068</v>
+        <v>0.01355389214559397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04030072056595987</v>
+        <v>0.04045115667297818</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -6168,19 +6168,19 @@
         <v>30150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20581</v>
+        <v>20387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42043</v>
+        <v>41986</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02616675855349409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01786229751445249</v>
+        <v>0.01769384081270543</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03648888389279877</v>
+        <v>0.03643942097472744</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>87969</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>71409</v>
+        <v>72687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106548</v>
+        <v>106930</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1489739473549661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1209311620375572</v>
+        <v>0.1230949953749717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1804386279640407</v>
+        <v>0.1810842200117532</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -6218,19 +6218,19 @@
         <v>72854</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58385</v>
+        <v>57763</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>89848</v>
+        <v>88493</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1296999961562675</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1039399951460455</v>
+        <v>0.10283303263592</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1599531348706293</v>
+        <v>0.1575398695816473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>155</v>
@@ -6239,19 +6239,19 @@
         <v>160823</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>135022</v>
+        <v>136503</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>186047</v>
+        <v>185981</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1395776967112047</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1171847652251426</v>
+        <v>0.1184704019949259</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1614695590783646</v>
+        <v>0.1614120165980764</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>486594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>466410</v>
+        <v>465291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>503769</v>
+        <v>503097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8240436804406666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.789861379726011</v>
+        <v>0.7879663628629384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8531287822319634</v>
+        <v>0.8519906300299238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>488</v>
@@ -6289,19 +6289,19 @@
         <v>474644</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>457160</v>
+        <v>457375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>489529</v>
+        <v>491348</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8449906497718008</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8138654178997937</v>
+        <v>0.8142478712326106</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.871489136731906</v>
+        <v>0.8747280208395528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>959</v>
@@ -6310,19 +6310,19 @@
         <v>961238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>935533</v>
+        <v>935142</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>988423</v>
+        <v>986423</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8342555447353012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8119456321420968</v>
+        <v>0.8116067677785911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8578489507537398</v>
+        <v>0.8561127528292544</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>3967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1019</v>
+        <v>959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9127</v>
+        <v>9231</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005943004250514068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001526314694825348</v>
+        <v>0.001437282062042503</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01367387196191662</v>
+        <v>0.01382904569702719</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -6435,19 +6435,19 @@
         <v>9826</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4692</v>
+        <v>5106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17319</v>
+        <v>18202</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01485679287405208</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007094252857954128</v>
+        <v>0.007720368668722306</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02618547410492796</v>
+        <v>0.02752123412661639</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -6456,19 +6456,19 @@
         <v>13793</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8097</v>
+        <v>7839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22930</v>
+        <v>22005</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01037936134689776</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00609294583376857</v>
+        <v>0.005899212362027214</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01725485817810019</v>
+        <v>0.01655861939815878</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>126498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106875</v>
+        <v>107364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149706</v>
+        <v>147892</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.189507224282325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1601106492677916</v>
+        <v>0.1608426838290306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2242756283761008</v>
+        <v>0.2215578503814536</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -6506,19 +6506,19 @@
         <v>128749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109673</v>
+        <v>109497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152985</v>
+        <v>149695</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1946653802674969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1658230386315353</v>
+        <v>0.1655573810904343</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2313102285283956</v>
+        <v>0.2263359015997171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -6527,19 +6527,19 @@
         <v>255247</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226723</v>
+        <v>228561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283941</v>
+        <v>287359</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.192074417972407</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1706096833005491</v>
+        <v>0.1719928185177437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2136670354188288</v>
+        <v>0.2162387142178461</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>537045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>514513</v>
+        <v>515155</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>557432</v>
+        <v>556318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8045497714671609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7707950824639369</v>
+        <v>0.7717567504376012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8350912298592538</v>
+        <v>0.8334230241881141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>527</v>
@@ -6577,19 +6577,19 @@
         <v>522811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>499474</v>
+        <v>501091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>542219</v>
+        <v>542672</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.790477826858451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7551925870615378</v>
+        <v>0.7576372021553751</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.819823041862892</v>
+        <v>0.8205065187844159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1043</v>
@@ -6598,19 +6598,19 @@
         <v>1059856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1028810</v>
+        <v>1027698</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1087191</v>
+        <v>1086628</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7975462206806953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7741841269974087</v>
+        <v>0.773347004860435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8181158711448739</v>
+        <v>0.8176921717855857</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>14470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8129</v>
+        <v>8011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24577</v>
+        <v>23699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02247583351763901</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01262623672687071</v>
+        <v>0.01244350368392265</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03817520253937049</v>
+        <v>0.03681105594042047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6723,19 +6723,19 @@
         <v>9185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4407</v>
+        <v>3397</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18273</v>
+        <v>16830</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01421812201445804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006821311077180447</v>
+        <v>0.005258544259539378</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02828517281405269</v>
+        <v>0.02605238143359408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -6744,19 +6744,19 @@
         <v>23655</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14950</v>
+        <v>15277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36931</v>
+        <v>35894</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01833985521916861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01159130940385818</v>
+        <v>0.01184419962920157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02863315873266289</v>
+        <v>0.0278292875676607</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>118941</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98080</v>
+        <v>100573</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140020</v>
+        <v>140261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1847513100465649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1523483872182205</v>
+        <v>0.1562212111234121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2174943853559674</v>
+        <v>0.2178675671783792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>153</v>
@@ -6794,19 +6794,19 @@
         <v>168327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145037</v>
+        <v>146232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190895</v>
+        <v>192586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2605625390891077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2245103249782182</v>
+        <v>0.2263610436689344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2954975830629915</v>
+        <v>0.2981148379929319</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>259</v>
@@ -6815,19 +6815,19 @@
         <v>287267</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>257376</v>
+        <v>252914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>323038</v>
+        <v>319047</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.222722314238167</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.199547553791888</v>
+        <v>0.1960880071147827</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2504556388933226</v>
+        <v>0.2473613338339654</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>510378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>488177</v>
+        <v>487834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>533256</v>
+        <v>529186</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7927728564357961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7582879184245054</v>
+        <v>0.7577557325994214</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8283104760251574</v>
+        <v>0.8219879281632512</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>438</v>
@@ -6865,19 +6865,19 @@
         <v>468501</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>446332</v>
+        <v>443175</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>494089</v>
+        <v>490223</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7252193388964343</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6909024613653078</v>
+        <v>0.686015771695243</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7648285907678811</v>
+        <v>0.7588437695206648</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>898</v>
@@ -6886,19 +6886,19 @@
         <v>978878</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>944928</v>
+        <v>944703</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1009931</v>
+        <v>1011930</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7589378305426644</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7326161550090715</v>
+        <v>0.7324411182685261</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7830132904324796</v>
+        <v>0.7845632450753383</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>13920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7499</v>
+        <v>7497</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24103</v>
+        <v>25259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02919886836458872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0157312421066822</v>
+        <v>0.01572544446894098</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.050559433348784</v>
+        <v>0.05298395570056391</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -7011,19 +7011,19 @@
         <v>8369</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3743</v>
+        <v>4078</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16810</v>
+        <v>18303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01688030085889874</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007548579881734699</v>
+        <v>0.00822514917093832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03390543370065172</v>
+        <v>0.03691526838761085</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -7032,19 +7032,19 @@
         <v>22289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13709</v>
+        <v>13543</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34645</v>
+        <v>34291</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02291875072206074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01409668535505505</v>
+        <v>0.01392601808089197</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03562356639017117</v>
+        <v>0.03526002751310558</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>103854</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>86876</v>
+        <v>84362</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>124850</v>
+        <v>122910</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2178491257579492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1822361906172632</v>
+        <v>0.1769626018245972</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2618908495955393</v>
+        <v>0.2578227288821462</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -7082,19 +7082,19 @@
         <v>163153</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>143184</v>
+        <v>141997</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>185792</v>
+        <v>185565</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3290681389034369</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2887922655607767</v>
+        <v>0.2863971968041448</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3747290792944942</v>
+        <v>0.3742722515540038</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>232</v>
@@ -7103,19 +7103,19 @@
         <v>267007</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>237019</v>
+        <v>239124</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>295879</v>
+        <v>300691</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2745495892101245</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2437144979852356</v>
+        <v>0.2458791755344494</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3042371818866949</v>
+        <v>0.3091853382889124</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>358950</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>337483</v>
+        <v>338442</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>378015</v>
+        <v>379796</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.752952005877462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7079208227009897</v>
+        <v>0.7099319818938202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7929441023259753</v>
+        <v>0.7966788577498823</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>283</v>
@@ -7153,19 +7153,19 @@
         <v>324281</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>301782</v>
+        <v>301066</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>345331</v>
+        <v>345938</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6540515602376643</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.608673344037728</v>
+        <v>0.6072288072680078</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6965080048216911</v>
+        <v>0.6977324943807313</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>604</v>
@@ -7174,19 +7174,19 @@
         <v>683232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>652097</v>
+        <v>648961</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>712766</v>
+        <v>711042</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7025316600678148</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6705177764578274</v>
+        <v>0.6672930491605468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7329002559365809</v>
+        <v>0.7311273317049564</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>53278</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41663</v>
+        <v>39869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67784</v>
+        <v>66690</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1593562778895526</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1246159990231605</v>
+        <v>0.1192505356824022</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2027444455254718</v>
+        <v>0.1994743547079278</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -7299,19 +7299,19 @@
         <v>43627</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32071</v>
+        <v>31549</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57521</v>
+        <v>57639</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.115784890500413</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08511606004245185</v>
+        <v>0.08373151448421842</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1526582711376949</v>
+        <v>0.152972635969777</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>94</v>
@@ -7320,19 +7320,19 @@
         <v>96905</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>78910</v>
+        <v>79445</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>115279</v>
+        <v>116314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1362696970958841</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1109657061096831</v>
+        <v>0.1117183383159187</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1621088325353583</v>
+        <v>0.1635640959870848</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>69500</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56208</v>
+        <v>55433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85630</v>
+        <v>85674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2078789710657449</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1681198759617553</v>
+        <v>0.1658039625564855</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2561247822863464</v>
+        <v>0.2562559784307607</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -7370,19 +7370,19 @@
         <v>133792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115362</v>
+        <v>114162</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>154157</v>
+        <v>151387</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3550810974167806</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3061687677858638</v>
+        <v>0.3029829555170605</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4091296515266829</v>
+        <v>0.4017777643346138</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>192</v>
@@ -7391,19 +7391,19 @@
         <v>203292</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>178595</v>
+        <v>178696</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>226959</v>
+        <v>226399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2858749676736025</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2511446013438816</v>
+        <v>0.2512865455840373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3191557785531979</v>
+        <v>0.3183689211567356</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>211552</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>193610</v>
+        <v>193725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>229808</v>
+        <v>229582</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6327647510447024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5790984307903578</v>
+        <v>0.5794417024990463</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6873699355467521</v>
+        <v>0.6866938576118928</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>185</v>
@@ -7441,19 +7441,19 @@
         <v>199374</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>178804</v>
+        <v>179435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>218986</v>
+        <v>218552</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5291340120828064</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4745422282084348</v>
+        <v>0.4762164543305389</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5811841085733923</v>
+        <v>0.5800331512476633</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>392</v>
@@ -7462,19 +7462,19 @@
         <v>410926</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>381649</v>
+        <v>385220</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>438303</v>
+        <v>437957</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5778553352305134</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5366849400605024</v>
+        <v>0.5417068760154133</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6163526144755649</v>
+        <v>0.6158663825286922</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>58272</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47168</v>
+        <v>46506</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71168</v>
+        <v>70743</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2282720621419525</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1847732184138381</v>
+        <v>0.1821799977502862</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2787911719641517</v>
+        <v>0.2771275002844455</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>45</v>
@@ -7587,19 +7587,19 @@
         <v>59565</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45310</v>
+        <v>44784</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>78227</v>
+        <v>78509</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1513789193688714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1151493065902272</v>
+        <v>0.1138141597011347</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1988058766521154</v>
+        <v>0.1995215388397223</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -7608,19 +7608,19 @@
         <v>117837</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>98828</v>
+        <v>98773</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>140652</v>
+        <v>140900</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1816348342800141</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1523341492361638</v>
+        <v>0.1522488596500386</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2168026174955916</v>
+        <v>0.217184715083126</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>50415</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39466</v>
+        <v>39623</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63037</v>
+        <v>62083</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1974940309072176</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1546044469463392</v>
+        <v>0.1552171174980763</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2469410185226296</v>
+        <v>0.2432042378479105</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>92</v>
@@ -7658,19 +7658,19 @@
         <v>121375</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>100950</v>
+        <v>101401</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>142594</v>
+        <v>142623</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3084615672698583</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2565548401001765</v>
+        <v>0.2577005333212937</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3623870791649413</v>
+        <v>0.3624599821353767</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>151</v>
@@ -7679,19 +7679,19 @@
         <v>171790</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>149779</v>
+        <v>147175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>198222</v>
+        <v>196779</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2647980594848368</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2308707406342552</v>
+        <v>0.2268568800073691</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3055406697000452</v>
+        <v>0.3033166405154223</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>146586</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>131115</v>
+        <v>132291</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>160567</v>
+        <v>160995</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5742339069508299</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5136276345924934</v>
+        <v>0.5182315416895523</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6289996006084788</v>
+        <v>0.630679469450009</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -7729,19 +7729,19 @@
         <v>212545</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>189902</v>
+        <v>189663</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>235181</v>
+        <v>235958</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5401595133612703</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4826161238943905</v>
+        <v>0.4820089156557587</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5976866380861918</v>
+        <v>0.5996625857802066</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>333</v>
@@ -7750,19 +7750,19 @@
         <v>359131</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>334288</v>
+        <v>332500</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>385820</v>
+        <v>384809</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.553567106235149</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5152740651290503</v>
+        <v>0.5125183919660983</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5947056982855229</v>
+        <v>0.5931479735476914</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>184020</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>156583</v>
+        <v>157155</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>212679</v>
+        <v>210187</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05432187838783927</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04622274945674632</v>
+        <v>0.04639156317275397</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06278189193527625</v>
+        <v>0.06204635234667019</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>146</v>
@@ -7875,19 +7875,19 @@
         <v>163371</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>136436</v>
+        <v>138273</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>188434</v>
+        <v>190139</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04628072567113847</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03865052386572087</v>
+        <v>0.03917079725297443</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0533808102503114</v>
+        <v>0.05386382945752582</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>331</v>
@@ -7896,19 +7896,19 @@
         <v>347391</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>312182</v>
+        <v>314841</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>384016</v>
+        <v>384402</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05021852699250653</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04512873949750372</v>
+        <v>0.04551316076383629</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05551293140386488</v>
+        <v>0.05556883956858965</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>602601</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>562242</v>
+        <v>553753</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>652767</v>
+        <v>651100</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1778852977139783</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.165971386665085</v>
+        <v>0.1634655581113894</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1926939837070596</v>
+        <v>0.1922018101622656</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>771</v>
@@ -7946,19 +7946,19 @@
         <v>843533</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>792706</v>
+        <v>792469</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>890789</v>
+        <v>897270</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2389611383844353</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2245623565584573</v>
+        <v>0.2244954027543817</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.252348126922581</v>
+        <v>0.2541840437883056</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1333</v>
@@ -7967,19 +7967,19 @@
         <v>1446135</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1374955</v>
+        <v>1381458</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1509868</v>
+        <v>1524321</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2090519282787395</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1987621796684801</v>
+        <v>0.1997022646423287</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2182651280749571</v>
+        <v>0.2203544340655041</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>2600963</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7677928238981824</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2408</v>
@@ -8017,19 +8017,19 @@
         <v>2523098</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7147581359444263</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4886</v>
@@ -8038,19 +8038,19 @@
         <v>5124061</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.740729544728754</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
     </row>
     <row r="35">
@@ -8398,19 +8398,19 @@
         <v>7426</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2054</v>
+        <v>2438</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17451</v>
+        <v>20760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02091613064187538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005784848374229428</v>
+        <v>0.006868714771433576</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04915488872520009</v>
+        <v>0.05847661777762934</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -8419,19 +8419,19 @@
         <v>7426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2068</v>
+        <v>2073</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19891</v>
+        <v>18894</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01004964581953764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002798327783017474</v>
+        <v>0.002805988166644067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02692003627495947</v>
+        <v>0.02557135690393314</v>
       </c>
     </row>
     <row r="5">
@@ -8448,19 +8448,19 @@
         <v>33786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17972</v>
+        <v>18258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54942</v>
+        <v>55225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0880150447823147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04681822083065633</v>
+        <v>0.04756369713000757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1431257443814569</v>
+        <v>0.1438630643430376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -8469,19 +8469,19 @@
         <v>51012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34866</v>
+        <v>33592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72838</v>
+        <v>71497</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1436891643473238</v>
+        <v>0.1436891643473239</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09820963719757841</v>
+        <v>0.0946225609057193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2051699752702962</v>
+        <v>0.2013913928916868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -8490,19 +8490,19 @@
         <v>84798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59497</v>
+        <v>64323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112491</v>
+        <v>119179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1147649820686486</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08052313947449374</v>
+        <v>0.08705341022522202</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1522439868680649</v>
+        <v>0.1612948487875329</v>
       </c>
     </row>
     <row r="6">
@@ -8519,19 +8519,19 @@
         <v>350085</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>328929</v>
+        <v>328646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>365899</v>
+        <v>365613</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9119849552176854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8568742556185431</v>
+        <v>0.8561369356569628</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9531817791693435</v>
+        <v>0.9524363028699928</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -8540,19 +8540,19 @@
         <v>296578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>275918</v>
+        <v>275144</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>314694</v>
+        <v>314921</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8353947050108008</v>
+        <v>0.8353947050108006</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7772005741935991</v>
+        <v>0.7750201629824037</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.886425613382764</v>
+        <v>0.8870642286564587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>325</v>
@@ -8561,19 +8561,19 @@
         <v>646662</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>616051</v>
+        <v>615951</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>670997</v>
+        <v>669305</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8751853721118138</v>
+        <v>0.8751853721118139</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8337564566575891</v>
+        <v>0.8336218172499856</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9081194048300535</v>
+        <v>0.9058292999554286</v>
       </c>
     </row>
     <row r="7">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6502</v>
+        <v>4493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002353280136275529</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01412505231218988</v>
+        <v>0.009759087402277907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -8686,19 +8686,19 @@
         <v>9818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4862</v>
+        <v>4408</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19176</v>
+        <v>17961</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02007175316938889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009939855987959479</v>
+        <v>0.009010927512696359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03920402434780053</v>
+        <v>0.03671844073692773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -8707,19 +8707,19 @@
         <v>10901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4784</v>
+        <v>5234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19862</v>
+        <v>20073</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01148123066457352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005038825456585708</v>
+        <v>0.00551253079578706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02091902653085994</v>
+        <v>0.02114097028805397</v>
       </c>
     </row>
     <row r="9">
@@ -8736,19 +8736,19 @@
         <v>65816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47076</v>
+        <v>49276</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>87206</v>
+        <v>88384</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1429694228967691</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1022624058817588</v>
+        <v>0.1070409231365383</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.189435292857171</v>
+        <v>0.1919932659225397</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -8757,19 +8757,19 @@
         <v>86613</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>69658</v>
+        <v>69356</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106151</v>
+        <v>104949</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.177070544144223</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1424074738948864</v>
+        <v>0.141789989706467</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2170121123557662</v>
+        <v>0.214555263812125</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>122</v>
@@ -8778,19 +8778,19 @@
         <v>152429</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>127279</v>
+        <v>128384</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>183323</v>
+        <v>182275</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1605371527527518</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1340499544921482</v>
+        <v>0.1352137084041232</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1930750874764693</v>
+        <v>0.1919712209223713</v>
       </c>
     </row>
     <row r="10">
@@ -8807,19 +8807,19 @@
         <v>393448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>371850</v>
+        <v>370566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>412408</v>
+        <v>410052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8546772969669556</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8077593237010966</v>
+        <v>0.8049719730584022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.895863853375225</v>
+        <v>0.8907448754079125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>362</v>
@@ -8828,19 +8828,19 @@
         <v>392715</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>372582</v>
+        <v>374265</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>411098</v>
+        <v>411588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8028577026863881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.761699235595504</v>
+        <v>0.7651400693300964</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.840440163123493</v>
+        <v>0.8414429488314452</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>615</v>
@@ -8849,19 +8849,19 @@
         <v>786163</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>756828</v>
+        <v>755553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>812881</v>
+        <v>810267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8279816165826747</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7970862749878538</v>
+        <v>0.7957431033350135</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8561208572530121</v>
+        <v>0.8533682908661319</v>
       </c>
     </row>
     <row r="11">
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7558</v>
+        <v>7399</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002308843234763074</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01247846376732962</v>
+        <v>0.0122159834361996</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -8974,19 +8974,19 @@
         <v>3744</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8302</v>
+        <v>8288</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.006269624217268703</v>
+        <v>0.006269624217268701</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002497355228326437</v>
+        <v>0.002505138634468328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01390179369199988</v>
+        <v>0.01387761290617021</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -8995,19 +8995,19 @@
         <v>5143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2207</v>
+        <v>2137</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10756</v>
+        <v>11018</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.004275257331696214</v>
+        <v>0.004275257331696213</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001834966478103436</v>
+        <v>0.001776301877404906</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008941877747470335</v>
+        <v>0.00915907773195471</v>
       </c>
     </row>
     <row r="13">
@@ -9024,19 +9024,19 @@
         <v>118271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97757</v>
+        <v>98429</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139420</v>
+        <v>139273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1952610796597321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.16139312408397</v>
+        <v>0.1625030647985153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2301764895580256</v>
+        <v>0.2299340750921109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -9045,19 +9045,19 @@
         <v>135470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118513</v>
+        <v>118878</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152014</v>
+        <v>154766</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2268350860819349</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1984425603684677</v>
+        <v>0.1990525847468337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2545375666810071</v>
+        <v>0.2591444082569845</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>295</v>
@@ -9066,19 +9066,19 @@
         <v>253741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>229193</v>
+        <v>227988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282981</v>
+        <v>281574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2109366677822543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1905293459290532</v>
+        <v>0.1895277275491887</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.23524373648489</v>
+        <v>0.234074189895577</v>
       </c>
     </row>
     <row r="14">
@@ -9095,19 +9095,19 @@
         <v>486038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>464130</v>
+        <v>464662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>506859</v>
+        <v>506311</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8024300771055047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7662613497993374</v>
+        <v>0.767139926004952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8368054411711867</v>
+        <v>0.8359002509105913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>622</v>
@@ -9116,19 +9116,19 @@
         <v>458004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>441882</v>
+        <v>438881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475794</v>
+        <v>475033</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7668952897007966</v>
+        <v>0.7668952897007963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7399008799743605</v>
+        <v>0.7348764243008588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7966833797757168</v>
+        <v>0.7954092502344002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1050</v>
@@ -9137,19 +9137,19 @@
         <v>944041</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>914988</v>
+        <v>916534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>969267</v>
+        <v>970375</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7847880748860494</v>
+        <v>0.7847880748860493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7606358200941585</v>
+        <v>0.761921413477273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8057582388882282</v>
+        <v>0.8066798481008196</v>
       </c>
     </row>
     <row r="15">
@@ -9241,19 +9241,19 @@
         <v>6828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2635</v>
+        <v>3114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14166</v>
+        <v>15989</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.009969332126246472</v>
+        <v>0.009969332126246474</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00384665922682842</v>
+        <v>0.004546387460715905</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02068176808090811</v>
+        <v>0.02334361612853727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -9262,19 +9262,19 @@
         <v>8724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4906</v>
+        <v>4500</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14221</v>
+        <v>14237</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01207100381497339</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006787471665867938</v>
+        <v>0.006226211923655664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01967637787137318</v>
+        <v>0.01969853124142273</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -9283,19 +9283,19 @@
         <v>15553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9631</v>
+        <v>9296</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24015</v>
+        <v>24347</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01104839936152428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006841901020126933</v>
+        <v>0.006603418739350545</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01706000039333186</v>
+        <v>0.0172959685597808</v>
       </c>
     </row>
     <row r="17">
@@ -9312,19 +9312,19 @@
         <v>183555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160376</v>
+        <v>159975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208910</v>
+        <v>208126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2679879312767528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2341474226016874</v>
+        <v>0.2335606990554431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3050054894596533</v>
+        <v>0.3038617695050958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>316</v>
@@ -9333,19 +9333,19 @@
         <v>197447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179380</v>
+        <v>179089</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218147</v>
+        <v>217553</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2731865286469947</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2481888598644956</v>
+        <v>0.2477852215137453</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3018268581969076</v>
+        <v>0.3010046737029904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>491</v>
@@ -9354,19 +9354,19 @@
         <v>381003</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>348786</v>
+        <v>353477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411665</v>
+        <v>410118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2706570618177973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2477705148471849</v>
+        <v>0.2511034458459226</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.292438636296956</v>
+        <v>0.2913399429578351</v>
       </c>
     </row>
     <row r="18">
@@ -9383,19 +9383,19 @@
         <v>494555</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>468048</v>
+        <v>469994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>518163</v>
+        <v>519682</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7220427365970007</v>
+        <v>0.7220427365970009</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6833429936625942</v>
+        <v>0.6861842978026285</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7565103460026313</v>
+        <v>0.758728241909309</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>792</v>
@@ -9404,19 +9404,19 @@
         <v>516585</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>494882</v>
+        <v>496488</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>534419</v>
+        <v>535461</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7147424675380319</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6847138737314017</v>
+        <v>0.6869368533674204</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7394167991284256</v>
+        <v>0.7408592892440293</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1264</v>
@@ -9425,19 +9425,19 @@
         <v>1011140</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>981031</v>
+        <v>982800</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1043344</v>
+        <v>1039766</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7182945388206786</v>
+        <v>0.7182945388206785</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6969051823778404</v>
+        <v>0.6981621011072136</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7411714663810384</v>
+        <v>0.7386293408871746</v>
       </c>
     </row>
     <row r="19">
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5571</v>
+        <v>6144</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003061923520717529</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009387402122666267</v>
+        <v>0.01035287890124016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -9550,19 +9550,19 @@
         <v>4932</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2140</v>
+        <v>2303</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9284</v>
+        <v>9391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008377368407800314</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00363420203800286</v>
+        <v>0.003911209122105664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01576734429531705</v>
+        <v>0.01595033040017471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -9571,19 +9571,19 @@
         <v>6750</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3386</v>
+        <v>3211</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12048</v>
+        <v>11923</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.005709199112564293</v>
+        <v>0.005709199112564292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00286398719539966</v>
+        <v>0.002716141814466015</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01019137483302691</v>
+        <v>0.01008514641572052</v>
       </c>
     </row>
     <row r="21">
@@ -9600,19 +9600,19 @@
         <v>170136</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>146621</v>
+        <v>147461</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>191679</v>
+        <v>190469</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2866972548708094</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2470709415143243</v>
+        <v>0.2484877378412348</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3229983081230373</v>
+        <v>0.3209606853295701</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>381</v>
@@ -9621,19 +9621,19 @@
         <v>223441</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>204339</v>
+        <v>205610</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>242401</v>
+        <v>241179</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3794930069858987</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.347049617763191</v>
+        <v>0.3492086770887209</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4116951687383524</v>
+        <v>0.4096194833687056</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>568</v>
@@ -9642,19 +9642,19 @@
         <v>393577</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>367506</v>
+        <v>364716</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>424610</v>
+        <v>418517</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3329127523164351</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3108605563034869</v>
+        <v>0.308500082375128</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.359162364537279</v>
+        <v>0.3540088869673587</v>
       </c>
     </row>
     <row r="22">
@@ -9671,19 +9671,19 @@
         <v>421482</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>400083</v>
+        <v>400967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>444247</v>
+        <v>443962</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.710240821608473</v>
+        <v>0.7102408216084731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6741818983283102</v>
+        <v>0.6756716350948468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.748602281270732</v>
+        <v>0.7481228767381919</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>583</v>
@@ -9692,19 +9692,19 @@
         <v>360415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>342063</v>
+        <v>342449</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>379581</v>
+        <v>378551</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6121296246063009</v>
+        <v>0.6121296246063008</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5809604574550694</v>
+        <v>0.5816166872833591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6446820537407809</v>
+        <v>0.6429319464335504</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1043</v>
@@ -9713,19 +9713,19 @@
         <v>781896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>750105</v>
+        <v>756807</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>808216</v>
+        <v>809651</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6613780485710005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6344867723721827</v>
+        <v>0.6401560086527952</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6836409705080765</v>
+        <v>0.6848548207708788</v>
       </c>
     </row>
     <row r="23">
@@ -9817,19 +9817,19 @@
         <v>17817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11505</v>
+        <v>11377</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25889</v>
+        <v>25716</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04446423739070812</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.028712469574335</v>
+        <v>0.0283920649870685</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06461117985138762</v>
+        <v>0.06417930155688439</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -9838,19 +9838,19 @@
         <v>18343</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12812</v>
+        <v>13115</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25887</v>
+        <v>25339</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04273197403878794</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02984806036564179</v>
+        <v>0.03055298300426691</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06030762169790089</v>
+        <v>0.05903126921098648</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -9859,19 +9859,19 @@
         <v>36159</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27435</v>
+        <v>28193</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>47059</v>
+        <v>46194</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04356829962082454</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03305570650077006</v>
+        <v>0.03396982262600418</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05670144605203752</v>
+        <v>0.05565927886716317</v>
       </c>
     </row>
     <row r="25">
@@ -9888,19 +9888,19 @@
         <v>122116</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108227</v>
+        <v>108795</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138529</v>
+        <v>139093</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3047612206062322</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2700992049541796</v>
+        <v>0.2715176114024423</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3457238889647272</v>
+        <v>0.3471296712875021</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>306</v>
@@ -9909,19 +9909,19 @@
         <v>154088</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>140201</v>
+        <v>140484</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>168751</v>
+        <v>167557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3589670721736687</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3266145315351083</v>
+        <v>0.3272741975602275</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3931254068639662</v>
+        <v>0.3903431031238859</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>480</v>
@@ -9930,19 +9930,19 @@
         <v>276204</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>257352</v>
+        <v>256397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>299500</v>
+        <v>298113</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3327968363884033</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3100819468089241</v>
+        <v>0.3089304317566444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3608649631873354</v>
+        <v>0.3591945500893343</v>
       </c>
     </row>
     <row r="26">
@@ -9959,19 +9959,19 @@
         <v>260761</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>243608</v>
+        <v>244078</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>275474</v>
+        <v>276361</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6507745420030596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.607964741984077</v>
+        <v>0.6091370360816016</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6874927103737105</v>
+        <v>0.6897058542748936</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>469</v>
@@ -9980,19 +9980,19 @@
         <v>256824</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>241617</v>
+        <v>243052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>271223</v>
+        <v>270840</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5983009537875433</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5628752122787199</v>
+        <v>0.5662191709082375</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6318470257761287</v>
+        <v>0.6309533651365399</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>835</v>
@@ -10001,19 +10001,19 @@
         <v>517585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>495618</v>
+        <v>493905</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>538097</v>
+        <v>536877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6236348639907722</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5971663293805133</v>
+        <v>0.595102710264487</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6483489148769199</v>
+        <v>0.6468798251893845</v>
       </c>
     </row>
     <row r="27">
@@ -10105,19 +10105,19 @@
         <v>22922</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16083</v>
+        <v>15719</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32755</v>
+        <v>31802</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.07653495409389488</v>
+        <v>0.07653495409389485</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05370179674918098</v>
+        <v>0.05248717434421621</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1093689906350977</v>
+        <v>0.1061858491189805</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>62</v>
@@ -10126,19 +10126,19 @@
         <v>39972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31191</v>
+        <v>30570</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51021</v>
+        <v>51184</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09055297798269861</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0706593098105352</v>
+        <v>0.06925431618956325</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1155825769855528</v>
+        <v>0.1159534511431627</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>92</v>
@@ -10147,19 +10147,19 @@
         <v>62894</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51777</v>
+        <v>50048</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>76945</v>
+        <v>75922</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08488661845254782</v>
+        <v>0.08488661845254784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06988304549992044</v>
+        <v>0.06754891627494056</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1038510518379062</v>
+        <v>0.1024707390654283</v>
       </c>
     </row>
     <row r="29">
@@ -10176,19 +10176,19 @@
         <v>94700</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>82413</v>
+        <v>81741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108686</v>
+        <v>108214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3162033515627788</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2751753230872928</v>
+        <v>0.2729323336494274</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3629026276472794</v>
+        <v>0.3613249884672444</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>349</v>
@@ -10197,19 +10197,19 @@
         <v>172042</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>158056</v>
+        <v>156630</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>188844</v>
+        <v>185965</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3897442687629427</v>
+        <v>0.3897442687629426</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3580607903649461</v>
+        <v>0.3548306550856675</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4278081106566853</v>
+        <v>0.4212859654874151</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>496</v>
@@ -10218,19 +10218,19 @@
         <v>266742</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>245689</v>
+        <v>246860</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>286515</v>
+        <v>287049</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3600175911414268</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3316017585269593</v>
+        <v>0.3331828155391616</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3867049083823691</v>
+        <v>0.3874244427712351</v>
       </c>
     </row>
     <row r="30">
@@ -10247,19 +10247,19 @@
         <v>181870</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>168180</v>
+        <v>167110</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>196450</v>
+        <v>194475</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6072616943433263</v>
+        <v>0.6072616943433262</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5615517537914566</v>
+        <v>0.5579797510960807</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.655943045551837</v>
+        <v>0.6493505614799012</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>424</v>
@@ -10268,19 +10268,19 @@
         <v>229408</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>213485</v>
+        <v>213903</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>244757</v>
+        <v>244558</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5197027532543587</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4836295657304572</v>
+        <v>0.4845766082674349</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5544743812248207</v>
+        <v>0.5540231570366432</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>692</v>
@@ -10289,19 +10289,19 @@
         <v>411279</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>391162</v>
+        <v>390816</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>433287</v>
+        <v>433249</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5550957904060252</v>
+        <v>0.5550957904060253</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5279440602663937</v>
+        <v>0.5274777914845499</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5847999471569558</v>
+        <v>0.5847482936573056</v>
       </c>
     </row>
     <row r="31">
@@ -10393,19 +10393,19 @@
         <v>51865</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40300</v>
+        <v>40202</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67208</v>
+        <v>66081</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0151277932305876</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01175456921472669</v>
+        <v>0.01172592797218506</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01960289280361484</v>
+        <v>0.01927417234963846</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>134</v>
@@ -10414,19 +10414,19 @@
         <v>92960</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>76793</v>
+        <v>77668</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>110717</v>
+        <v>112082</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02565398382452969</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02119247379501914</v>
+        <v>0.02143397779993783</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03055444394756477</v>
+        <v>0.03093100025477498</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>197</v>
@@ -10435,19 +10435,19 @@
         <v>144825</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>125943</v>
+        <v>124979</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>169965</v>
+        <v>167730</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02053650781440632</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01785902890430757</v>
+        <v>0.0177223176292021</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02410131573431561</v>
+        <v>0.02378450816398762</v>
       </c>
     </row>
     <row r="33">
@@ -10464,19 +10464,19 @@
         <v>788381</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>734698</v>
+        <v>739002</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>838864</v>
+        <v>842499</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2299502294411165</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2142924017783474</v>
+        <v>0.2155475406572317</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2446749569255689</v>
+        <v>0.2457351318101312</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1649</v>
@@ -10485,19 +10485,19 @@
         <v>1020114</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>970998</v>
+        <v>973797</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1064999</v>
+        <v>1063868</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.281519312021153</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2679649860656368</v>
+        <v>0.2687373031706793</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2939060484006469</v>
+        <v>0.2935941709732001</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2492</v>
@@ -10506,19 +10506,19 @@
         <v>1808495</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1735417</v>
+        <v>1737307</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1873200</v>
+        <v>1877801</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.256448177253815</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2460856045856352</v>
+        <v>0.2463535402391888</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2656235640074069</v>
+        <v>0.2662758927852159</v>
       </c>
     </row>
     <row r="34">
@@ -10535,19 +10535,19 @@
         <v>2588239</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3425</v>
@@ -10556,19 +10556,19 @@
         <v>2510528</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5824</v>
@@ -10577,19 +10577,19 @@
         <v>5098767</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="35">
